--- a/Employee_Reports29/Neil Jhon Sabile Ramos Q0608.xlsx
+++ b/Employee_Reports29/Neil Jhon Sabile Ramos Q0608.xlsx
@@ -18,13 +18,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
     </font>
     <font>
       <b val="1"/>
@@ -68,7 +72,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -450,7 +454,7 @@
     <col width="4" customWidth="1" min="1" max="1"/>
     <col width="42" customWidth="1" min="2" max="2"/>
     <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
@@ -559,11 +563,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -608,11 +612,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -657,11 +661,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -706,11 +710,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -755,11 +759,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -804,11 +808,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -853,11 +857,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -902,11 +906,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -951,11 +955,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1000,11 +1004,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1049,11 +1053,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1098,11 +1102,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1126,8 +1130,10 @@
           <t>ELECTRICAL SAFETY</t>
         </is>
       </c>
-      <c r="D15" s="3" t="n">
-        <v/>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>LSME-OHS-SOP-021</t>
+        </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
@@ -1145,11 +1151,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1182,11 +1188,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
